--- a/resultados/tcc_results/resultados_fixos/FIXEDRESULTS.xlsx
+++ b/resultados/tcc_results/resultados_fixos/FIXEDRESULTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\OneDrive\Documentos\GitHub\TCC-App\resultados\tcc_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\OneDrive\Documentos\GitHub\TCC-App\resultados\tcc_results\resultados_fixos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F349F201-0252-49EF-8A29-00011A20FC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51271E7A-2F25-4E1B-BF9A-22FAC637EDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3585" yWindow="-75" windowWidth="20865" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados" sheetId="2" r:id="rId1"/>
@@ -374,6 +374,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,18 +396,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4986,7 +4986,7 @@
   <dimension ref="B6:AC47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D13"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5008,21 +5008,21 @@
   <sheetData>
     <row r="6" spans="2:29" ht="21" x14ac:dyDescent="0.35">
       <c r="B6" s="7"/>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="23"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="34"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="29"/>
       <c r="N6" s="24"/>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -5047,18 +5047,18 @@
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31" t="s">
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="31"/>
+      <c r="M7" s="30"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
@@ -5373,21 +5373,21 @@
     </row>
     <row r="17" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B17" s="7"/>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="25"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="29"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="33"/>
       <c r="N17" s="26"/>
     </row>
     <row r="18" spans="2:14" ht="21" x14ac:dyDescent="0.35">
@@ -5402,18 +5402,18 @@
         <v>12</v>
       </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30" t="s">
+      <c r="I18" s="34"/>
+      <c r="J18" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30" t="s">
+      <c r="K18" s="34"/>
+      <c r="L18" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="30"/>
+      <c r="M18" s="34"/>
     </row>
     <row r="19" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="9" t="s">
@@ -5648,21 +5648,21 @@
     </row>
     <row r="28" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="25"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="29"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="33"/>
       <c r="N28" s="26"/>
     </row>
     <row r="29" spans="2:14" ht="21" x14ac:dyDescent="0.35">
@@ -5677,18 +5677,18 @@
         <v>12</v>
       </c>
       <c r="G29" s="8"/>
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30" t="s">
+      <c r="I29" s="34"/>
+      <c r="J29" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30" t="s">
+      <c r="K29" s="34"/>
+      <c r="L29" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="30"/>
+      <c r="M29" s="34"/>
     </row>
     <row r="30" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B30" s="9" t="s">
@@ -5923,21 +5923,21 @@
     </row>
     <row r="39" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B39" s="7"/>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
       <c r="F39" s="25"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="27" t="s">
+      <c r="H39" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="29"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="33"/>
       <c r="N39" s="26"/>
     </row>
     <row r="40" spans="2:14" ht="21" x14ac:dyDescent="0.35">
@@ -5952,18 +5952,18 @@
         <v>12</v>
       </c>
       <c r="G40" s="8"/>
-      <c r="H40" s="30" t="s">
+      <c r="H40" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30" t="s">
+      <c r="I40" s="34"/>
+      <c r="J40" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30" t="s">
+      <c r="K40" s="34"/>
+      <c r="L40" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="30"/>
+      <c r="M40" s="34"/>
     </row>
     <row r="41" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B41" s="9" t="s">
@@ -6230,16 +6230,6 @@
     </scenario>
   </scenarios>
   <mergeCells count="20">
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="J40:K40"/>
     <mergeCell ref="L40:M40"/>
@@ -6250,6 +6240,16 @@
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="H39:M39"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C28:E28"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
